--- a/SDETHYD_1/src/test/resources/inputData.xlsx
+++ b/SDETHYD_1/src/test/resources/inputData.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2865" windowWidth="21525" windowHeight="5970"/>
+    <workbookView xWindow="0" yWindow="3720" windowWidth="21525" windowHeight="6300" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:K18"/>
+  <oleSize ref="A1:V19"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>First Name</t>
   </si>
@@ -89,6 +90,33 @@
   </si>
   <si>
     <t>AutomationEngineer</t>
+  </si>
+  <si>
+    <t>sr.no</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>Sham</t>
+  </si>
+  <si>
+    <t>Nithesh</t>
+  </si>
+  <si>
+    <t>Prakash</t>
+  </si>
+  <si>
+    <t>summit</t>
+  </si>
+  <si>
+    <t>Kalpesh</t>
   </si>
 </sst>
 </file>
@@ -422,7 +450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -553,4 +581,96 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>90000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SDETHYD_1/src/test/resources/inputData.xlsx
+++ b/SDETHYD_1/src/test/resources/inputData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3720" windowWidth="21525" windowHeight="6300" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="3720" windowWidth="21525" windowHeight="5595" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:V19"/>
+  <oleSize ref="A1:V17"/>
 </workbook>
 </file>
 
